--- a/output/aggregate_tables/status_by_landings_w_totals_fao_areas.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_fao_areas.xlsx
@@ -574,22 +574,22 @@
         <v>1.6229748</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>1.498207521826521</v>
+        <v>1.516868248288222</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>14.40733793043406</v>
+        <v>14.2300968335461</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>68.49005655388876</v>
+        <v>68.99097783619909</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>17.10260551567719</v>
+        <v>16.7789253302548</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>82.89739448432283</v>
+        <v>83.22107466974519</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>17.10260551567719</v>
+        <v>16.7789253302548</v>
       </c>
       <c r="I4" s="6" t="n"/>
     </row>
@@ -601,22 +601,22 @@
         <v>8.088503169999999</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>7.389827968965521</v>
+        <v>7.389797853085717</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>4.154184567002517</v>
+        <v>4.154201496683895</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>82.52833557261778</v>
+        <v>82.52826436978431</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>13.31747986037972</v>
+        <v>13.3175341335318</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>86.68252013962029</v>
+        <v>86.68246586646821</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>13.31747986037972</v>
+        <v>13.3175341335318</v>
       </c>
       <c r="I5" s="6" t="n"/>
     </row>
@@ -739,19 +739,19 @@
         <v>1.39222599</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7.732001171070384</v>
+        <v>7.723456676489038</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>39.50315305470338</v>
+        <v>39.52179558833541</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>52.76484577422625</v>
+        <v>52.75474773517554</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>47.23515422577377</v>
+        <v>47.24525226482444</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>52.76484577422625</v>
+        <v>52.75474773517554</v>
       </c>
       <c r="I10" s="6" t="n"/>
     </row>
@@ -820,19 +820,19 @@
         <v>14.422036719999</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>31.61527980601592</v>
+        <v>31.46752270844408</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>41.07245132503611</v>
+        <v>41.15688395222002</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>27.31226886894797</v>
+        <v>27.3755933393359</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>72.68773113105203</v>
+        <v>72.62440666066411</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>27.31226886894797</v>
+        <v>27.3755933393359</v>
       </c>
       <c r="I13" s="6" t="n"/>
     </row>
@@ -984,10 +984,10 @@
         <v>0.38501975</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>98.90828111198626</v>
+        <v>98.47978014980617</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.091718888013754</v>
+        <v>1.520219850193832</v>
       </c>
       <c r="F19" s="8" t="n">
         <v>0</v>
@@ -1010,22 +1010,22 @@
         <v>80.27958389</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>69.45807733661159</v>
+        <v>69.47670794719349</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>26.64723565892969</v>
+        <v>26.6068726388459</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>48.37613624522655</v>
+        <v>48.41272755377884</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>24.97662809584375</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>75.02337190415625</v>
+        <v>75.01960019262474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>24.97662809584375</v>
+        <v>24.98039980737526</v>
       </c>
       <c r="I20" s="6" t="n"/>
     </row>

--- a/output/aggregate_tables/status_by_landings_w_totals_fao_areas.xlsx
+++ b/output/aggregate_tables/status_by_landings_w_totals_fao_areas.xlsx
@@ -1046,8 +1046,8 @@
         <is>
           <t>Note: Area landings exclude landings from ISSCAAP codes 61, 62, 63, 64, 71, 72, 73, 74, 81, 82, 83, 91, 92, 93, 94, 
 except for stocks which have been incorporated in assessment. 
-'Deep Sea', 'Salmon', 'Sharks', and 'Tuna' status/landings have been incorporated into FAO area weighted percentages, 
-so these will appear different compared to tables with 'Deep Sea', 'Salmon', 'Sharks', and 'Tuna' categories separated.</t>
+'Salmon', 'Sharks', and 'Tuna' status/landings have been incorporated into FAO area weighted percentages, 
+so these will appear different compared to tables with 'Salmon', 'Sharks', and 'Tuna' categories separated.</t>
         </is>
       </c>
     </row>
